--- a/Project Timeline - Gantt Chart.xlsx
+++ b/Project Timeline - Gantt Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonaisah\Documents\NGEE ANN POLY\YEAR 3\SEM 3.2\ETI\Assignment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF25F272-64BB-42C7-83AF-2299FC0AA6F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{607EF8B1-6E49-4600-9DED-A0D287BD722A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A0F83B51-C1F7-46D5-908B-B729FD6C3C42}"/>
   </bookViews>
@@ -1154,7 +1154,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1708,7 +1708,7 @@
         <v>19</v>
       </c>
       <c r="D10" s="28">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="E10" s="29">
         <f>F9+1</f>
@@ -2017,7 +2017,7 @@
         <v>34</v>
       </c>
       <c r="D16" s="39">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E16" s="40">
         <v>43860</v>
